--- a/data/match_12.xlsx
+++ b/data/match_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81253CBC-C9CD-4B79-85A7-7F3AFEC049F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBBC3D-CA48-4BC2-9ECA-6589CB3B1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>Сибиряков Георгий</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>Шевчук Антон</t>
@@ -564,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -666,19 +663,19 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>44</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -719,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -790,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1074,7 +1071,7 @@
         <v>12.5</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1216,7 +1213,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1240,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1358,7 +1355,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -1429,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -1494,7 +1491,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -1562,13 +1559,13 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>29</v>
@@ -1577,87 +1574,78 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
       <c r="I16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -1672,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="s">
         <v>24</v>
@@ -1684,40 +1672,49 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="W16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -1728,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1740,25 +1737,25 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -1766,13 +1763,13 @@
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -1781,52 +1778,52 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="U18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="s">
         <v>31</v>
@@ -1835,80 +1832,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>29</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>29</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>31</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/match_12.xlsx
+++ b/data/match_12.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBBBC3D-CA48-4BC2-9ECA-6589CB3B1546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFAEEC6-BDD7-4DB8-B97C-20160773AEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -564,7 +564,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,6 +1481,9 @@
       </c>
       <c r="U13">
         <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>31</v>
       </c>
       <c r="W13">
         <v>0</v>
